--- a/MEDIA/3013_拉亞直營營業額(2020-02-01~2020-02-29).xlsx
+++ b/MEDIA/3013_拉亞直營營業額(2020-02-01~2020-02-29).xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,12 +500,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-02-02</t>
+          <t>2020-02-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>日</t>
+          <t>六</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,34 +514,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>7905</v>
+        <v>21885</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="F3" t="n">
-        <v>35</v>
+        <v>8455</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4</v>
+        <v>38.6</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="I3" t="n">
-        <v>80</v>
+        <v>6895</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>31.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L3" t="n">
-        <v>4625</v>
+        <v>3880</v>
       </c>
       <c r="M3" t="n">
-        <v>58.5</v>
+        <v>17.7</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -556,19 +556,19 @@
         <v>1</v>
       </c>
       <c r="R3" t="n">
-        <v>3165</v>
+        <v>1970</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -580,49 +580,57 @@
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="AA3" t="n">
-        <v>1581</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2020-02-02</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>小計</t>
+          <t>拉亞杭南</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>7905</v>
+        <v>30655</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="F4" t="n">
-        <v>35</v>
+        <v>13805</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>45</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="I4" t="n">
-        <v>80</v>
+        <v>7890</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>25.7</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L4" t="n">
-        <v>4625</v>
+        <v>4825</v>
       </c>
       <c r="M4" t="n">
-        <v>58.5</v>
+        <v>15.7</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -640,31 +648,2515 @@
         <v>3165</v>
       </c>
       <c r="S4" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="n">
+        <v>970</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>136</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2020-02-03</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>23880</v>
+      </c>
+      <c r="E5" t="n">
+        <v>68</v>
+      </c>
+      <c r="F5" t="n">
+        <v>9640</v>
+      </c>
+      <c r="G5" t="n">
+        <v>40.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>68</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5935</v>
+      </c>
+      <c r="M5" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>470</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>710</v>
+      </c>
+      <c r="V5" t="n">
+        <v>3</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>144</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2020-02-04</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>21945</v>
+      </c>
+      <c r="E6" t="n">
+        <v>54</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7103</v>
+      </c>
+      <c r="G6" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>72</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7030</v>
+      </c>
+      <c r="J6" t="n">
+        <v>32</v>
+      </c>
+      <c r="K6" t="n">
+        <v>19</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4917</v>
+      </c>
+      <c r="M6" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1480</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1415</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>147</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2020-02-05</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>三</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>29095</v>
+      </c>
+      <c r="E7" t="n">
+        <v>59</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9420</v>
+      </c>
+      <c r="G7" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>73</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9115</v>
+      </c>
+      <c r="J7" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>13</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5400</v>
+      </c>
+      <c r="M7" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>3685</v>
+      </c>
+      <c r="S7" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1475</v>
+      </c>
+      <c r="V7" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>147</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2020-02-06</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>四</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20845</v>
+      </c>
+      <c r="E8" t="n">
+        <v>72</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9405</v>
+      </c>
+      <c r="G8" t="n">
+        <v>45.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>71</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5850</v>
+      </c>
+      <c r="J8" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>17</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4430</v>
+      </c>
+      <c r="M8" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>765</v>
+      </c>
+      <c r="S8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="n">
+        <v>395</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>162</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2020-02-07</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>22895</v>
+      </c>
+      <c r="E9" t="n">
+        <v>59</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8830</v>
+      </c>
+      <c r="G9" t="n">
+        <v>38.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>70</v>
+      </c>
+      <c r="I9" t="n">
+        <v>6895</v>
+      </c>
+      <c r="J9" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>19</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5035</v>
+      </c>
+      <c r="M9" t="n">
+        <v>22</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1230</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="n">
+        <v>905</v>
+      </c>
+      <c r="V9" t="n">
+        <v>4</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2020-02-08</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>六</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>22150</v>
+      </c>
+      <c r="E10" t="n">
+        <v>59</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8262</v>
+      </c>
+      <c r="G10" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>45</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5810</v>
+      </c>
+      <c r="J10" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5443</v>
+      </c>
+      <c r="M10" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1505</v>
+      </c>
+      <c r="S10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1130</v>
+      </c>
+      <c r="V10" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>115</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2020-02-09</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>25580</v>
+      </c>
+      <c r="E11" t="n">
+        <v>70</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>43</v>
+      </c>
+      <c r="H11" t="n">
+        <v>59</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7925</v>
+      </c>
+      <c r="J11" t="n">
+        <v>31</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4030</v>
+      </c>
+      <c r="M11" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2225</v>
+      </c>
+      <c r="S11" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>400</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>136</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2020-02-10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>24845</v>
+      </c>
+      <c r="E12" t="n">
+        <v>67</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10110</v>
+      </c>
+      <c r="G12" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="H12" t="n">
+        <v>71</v>
+      </c>
+      <c r="I12" t="n">
+        <v>6575</v>
+      </c>
+      <c r="J12" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>15</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4905</v>
+      </c>
+      <c r="M12" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1780</v>
+      </c>
+      <c r="S12" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1475</v>
+      </c>
+      <c r="V12" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>155</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>25400</v>
+      </c>
+      <c r="E13" t="n">
+        <v>79</v>
+      </c>
+      <c r="F13" t="n">
+        <v>11110</v>
+      </c>
+      <c r="G13" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>59</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5285</v>
+      </c>
+      <c r="J13" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="K13" t="n">
+        <v>15</v>
+      </c>
+      <c r="L13" t="n">
+        <v>6435</v>
+      </c>
+      <c r="M13" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1430</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1140</v>
+      </c>
+      <c r="V13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>155</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>三</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>24415</v>
+      </c>
+      <c r="E14" t="n">
+        <v>61</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8540</v>
+      </c>
+      <c r="G14" t="n">
+        <v>35</v>
+      </c>
+      <c r="H14" t="n">
+        <v>67</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6330</v>
+      </c>
+      <c r="J14" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="K14" t="n">
+        <v>19</v>
+      </c>
+      <c r="L14" t="n">
+        <v>7380</v>
+      </c>
+      <c r="M14" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>720</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1445</v>
+      </c>
+      <c r="V14" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>149</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>四</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>27455</v>
+      </c>
+      <c r="E15" t="n">
+        <v>61</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9560</v>
+      </c>
+      <c r="G15" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>80</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7450</v>
+      </c>
+      <c r="J15" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>11</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6725</v>
+      </c>
+      <c r="M15" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1745</v>
+      </c>
+      <c r="S15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>1</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1975</v>
+      </c>
+      <c r="V15" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>154</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>25695</v>
+      </c>
+      <c r="E16" t="n">
+        <v>64</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9155</v>
+      </c>
+      <c r="G16" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="H16" t="n">
+        <v>85</v>
+      </c>
+      <c r="I16" t="n">
+        <v>9245</v>
+      </c>
+      <c r="J16" t="n">
+        <v>36</v>
+      </c>
+      <c r="K16" t="n">
+        <v>5</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3735</v>
+      </c>
+      <c r="M16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1350</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2210</v>
+      </c>
+      <c r="V16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>156</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2020-02-15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>六</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>30791</v>
+      </c>
+      <c r="E17" t="n">
+        <v>82</v>
+      </c>
+      <c r="F17" t="n">
+        <v>12880</v>
+      </c>
+      <c r="G17" t="n">
+        <v>41.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>98</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10760</v>
+      </c>
+      <c r="J17" t="n">
+        <v>34.9</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5226</v>
+      </c>
+      <c r="M17" t="n">
+        <v>17</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1020</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1</v>
+      </c>
+      <c r="U17" t="n">
+        <v>905</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>192</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2020-02-16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>30065</v>
+      </c>
+      <c r="E18" t="n">
+        <v>66</v>
+      </c>
+      <c r="F18" t="n">
+        <v>10285</v>
+      </c>
+      <c r="G18" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>73</v>
+      </c>
+      <c r="I18" t="n">
+        <v>9785</v>
+      </c>
+      <c r="J18" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6040</v>
+      </c>
+      <c r="M18" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2345</v>
+      </c>
+      <c r="S18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1610</v>
+      </c>
+      <c r="V18" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20055</v>
+      </c>
+      <c r="E19" t="n">
+        <v>60</v>
+      </c>
+      <c r="F19" t="n">
+        <v>8305</v>
+      </c>
+      <c r="G19" t="n">
+        <v>41.4</v>
+      </c>
+      <c r="H19" t="n">
+        <v>67</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6775</v>
+      </c>
+      <c r="J19" t="n">
+        <v>33.8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>14</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2840</v>
+      </c>
+      <c r="M19" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>655</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1480</v>
+      </c>
+      <c r="V19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>143</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>23660</v>
+      </c>
+      <c r="E20" t="n">
+        <v>53</v>
+      </c>
+      <c r="F20" t="n">
+        <v>7730</v>
+      </c>
+      <c r="G20" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>77</v>
+      </c>
+      <c r="I20" t="n">
+        <v>7770</v>
+      </c>
+      <c r="J20" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>12</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5305</v>
+      </c>
+      <c r="M20" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1365</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1490</v>
+      </c>
+      <c r="V20" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>144</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>三</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>21980</v>
+      </c>
+      <c r="E21" t="n">
+        <v>61</v>
+      </c>
+      <c r="F21" t="n">
+        <v>8635</v>
+      </c>
+      <c r="G21" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>80</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7075</v>
+      </c>
+      <c r="J21" t="n">
+        <v>32.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>19</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4155</v>
+      </c>
+      <c r="M21" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>690</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1425</v>
+      </c>
+      <c r="V21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>162</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>四</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>23555</v>
+      </c>
+      <c r="E22" t="n">
+        <v>59</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8110</v>
+      </c>
+      <c r="G22" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="H22" t="n">
+        <v>64</v>
+      </c>
+      <c r="I22" t="n">
+        <v>6380</v>
+      </c>
+      <c r="J22" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>18</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6425</v>
+      </c>
+      <c r="M22" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>625</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2015</v>
+      </c>
+      <c r="V22" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>143</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>26815</v>
+      </c>
+      <c r="E23" t="n">
+        <v>70</v>
+      </c>
+      <c r="F23" t="n">
+        <v>10245</v>
+      </c>
+      <c r="G23" t="n">
+        <v>38.2</v>
+      </c>
+      <c r="H23" t="n">
+        <v>79</v>
+      </c>
+      <c r="I23" t="n">
+        <v>7430</v>
+      </c>
+      <c r="J23" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>7430</v>
+      </c>
+      <c r="M23" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="n">
+        <v>440</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1270</v>
+      </c>
+      <c r="V23" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>153</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2020-02-22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>六</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>31520</v>
+      </c>
+      <c r="E24" t="n">
+        <v>97</v>
+      </c>
+      <c r="F24" t="n">
+        <v>14700</v>
+      </c>
+      <c r="G24" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>61</v>
+      </c>
+      <c r="I24" t="n">
+        <v>6480</v>
+      </c>
+      <c r="J24" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5830</v>
+      </c>
+      <c r="M24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2460</v>
+      </c>
+      <c r="S24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2050</v>
+      </c>
+      <c r="V24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>161</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2020-02-23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>34765</v>
+      </c>
+      <c r="E25" t="n">
+        <v>71</v>
+      </c>
+      <c r="F25" t="n">
+        <v>11619</v>
+      </c>
+      <c r="G25" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>51</v>
+      </c>
+      <c r="I25" t="n">
+        <v>6405</v>
+      </c>
+      <c r="J25" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>9231</v>
+      </c>
+      <c r="M25" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4500</v>
+      </c>
+      <c r="S25" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="n">
+        <v>3010</v>
+      </c>
+      <c r="V25" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>128</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>一</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>26900</v>
+      </c>
+      <c r="E26" t="n">
+        <v>71</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10770</v>
+      </c>
+      <c r="G26" t="n">
         <v>40</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1581</v>
+      <c r="H26" t="n">
+        <v>71</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10180</v>
+      </c>
+      <c r="J26" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>12</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2990</v>
+      </c>
+      <c r="M26" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>935</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2025</v>
+      </c>
+      <c r="V26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>156</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>二</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>21398</v>
+      </c>
+      <c r="E27" t="n">
+        <v>61</v>
+      </c>
+      <c r="F27" t="n">
+        <v>6355</v>
+      </c>
+      <c r="G27" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="H27" t="n">
+        <v>60</v>
+      </c>
+      <c r="I27" t="n">
+        <v>5730</v>
+      </c>
+      <c r="J27" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="K27" t="n">
+        <v>12</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5988</v>
+      </c>
+      <c r="M27" t="n">
+        <v>28</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1375</v>
+      </c>
+      <c r="S27" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1880</v>
+      </c>
+      <c r="V27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>136</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>三</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>22795</v>
+      </c>
+      <c r="E28" t="n">
+        <v>62</v>
+      </c>
+      <c r="F28" t="n">
+        <v>7900</v>
+      </c>
+      <c r="G28" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>65</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6000</v>
+      </c>
+      <c r="J28" t="n">
+        <v>26.3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>24</v>
+      </c>
+      <c r="L28" t="n">
+        <v>5780</v>
+      </c>
+      <c r="M28" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>2105</v>
+      </c>
+      <c r="S28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1010</v>
+      </c>
+      <c r="V28" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>153</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>四</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>23975</v>
+      </c>
+      <c r="E29" t="n">
+        <v>73</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9280</v>
+      </c>
+      <c r="G29" t="n">
+        <v>38.7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>73</v>
+      </c>
+      <c r="I29" t="n">
+        <v>7050</v>
+      </c>
+      <c r="J29" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>19</v>
+      </c>
+      <c r="L29" t="n">
+        <v>5720</v>
+      </c>
+      <c r="M29" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>975</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="n">
+        <v>950</v>
+      </c>
+      <c r="V29" t="n">
+        <v>4</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>167</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>五</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>29755</v>
+      </c>
+      <c r="E30" t="n">
+        <v>57</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9290</v>
+      </c>
+      <c r="G30" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="H30" t="n">
+        <v>52</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7905</v>
+      </c>
+      <c r="J30" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>15</v>
+      </c>
+      <c r="L30" t="n">
+        <v>7590</v>
+      </c>
+      <c r="M30" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3505</v>
+      </c>
+      <c r="S30" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1465</v>
+      </c>
+      <c r="V30" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>126</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2020-02-29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>六</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>拉亞杭南</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>27040</v>
+      </c>
+      <c r="E31" t="n">
+        <v>64</v>
+      </c>
+      <c r="F31" t="n">
+        <v>11060</v>
+      </c>
+      <c r="G31" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="H31" t="n">
+        <v>57</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5270</v>
+      </c>
+      <c r="J31" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>14</v>
+      </c>
+      <c r="L31" t="n">
+        <v>7205</v>
+      </c>
+      <c r="M31" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1420</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="n">
+        <v>2085</v>
+      </c>
+      <c r="V31" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>137</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr"/>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>小計</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>741809</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1906</v>
+      </c>
+      <c r="F32" t="n">
+        <v>281559</v>
+      </c>
+      <c r="G32" t="n">
+        <v>38</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1959</v>
+      </c>
+      <c r="I32" t="n">
+        <v>210415</v>
+      </c>
+      <c r="J32" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>355</v>
+      </c>
+      <c r="L32" t="n">
+        <v>160830</v>
+      </c>
+      <c r="M32" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>29</v>
+      </c>
+      <c r="R32" t="n">
+        <v>47935</v>
+      </c>
+      <c r="S32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T32" t="n">
+        <v>29</v>
+      </c>
+      <c r="U32" t="n">
+        <v>41000</v>
+      </c>
+      <c r="V32" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1</v>
+      </c>
+      <c r="X32" t="n">
+        <v>70</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>4279</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
